--- a/app/assets/NETEM_Answers_Test.xlsx
+++ b/app/assets/NETEM_Answers_Test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navychen/company/SSC/answers/app/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1965" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="1960" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +41,6 @@
     <t>16------20</t>
   </si>
   <si>
-    <t>21------25(Text1)</t>
-  </si>
-  <si>
-    <t>26------30(Text2）</t>
-  </si>
-  <si>
-    <t>31------35(Text3)</t>
-  </si>
-  <si>
-    <t>36------40(Text4)</t>
-  </si>
-  <si>
     <t>一</t>
     <rPh sb="0" eb="1">
       <t>yi</t>
@@ -62,18 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>41------45(PartB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section 1 Use of English</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section Ⅱ Reading Comprehension</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>二</t>
   </si>
   <si>
@@ -100,7 +81,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DCAB</t>
     </r>
@@ -115,7 +95,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>BDDA</t>
     </r>
@@ -130,7 +109,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ADBC</t>
     </r>
@@ -145,7 +123,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CADA</t>
     </r>
@@ -160,7 +137,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>BCDA</t>
     </r>
@@ -175,7 +151,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>BDBD</t>
     </r>
@@ -194,7 +169,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CABC</t>
     </r>
@@ -209,7 +183,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ABCA</t>
     </r>
@@ -224,7 +197,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DBCD</t>
     </r>
@@ -239,7 +211,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DCAB</t>
     </r>
@@ -254,7 +225,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DBAC</t>
     </r>
@@ -269,7 +239,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ABCB</t>
     </r>
@@ -284,7 +253,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CBDA</t>
     </r>
@@ -299,7 +267,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ACDC</t>
     </r>
@@ -318,7 +285,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DABA</t>
     </r>
@@ -333,7 +299,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CDDA</t>
     </r>
@@ -348,7 +313,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ACAC</t>
     </r>
@@ -363,7 +327,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>BAAC</t>
     </r>
@@ -378,7 +341,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CBBC</t>
     </r>
@@ -393,7 +355,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CABD</t>
     </r>
@@ -408,7 +369,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ADAD</t>
     </r>
@@ -423,7 +383,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CBAA</t>
     </r>
@@ -438,7 +397,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DCBA</t>
     </r>
@@ -453,7 +411,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>DDAC</t>
     </r>
@@ -468,7 +425,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ABCC</t>
     </r>
@@ -483,7 +439,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>CBDB</t>
     </r>
@@ -498,7 +453,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ADCB</t>
     </r>
@@ -513,7 +467,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>ACBD</t>
     </r>
@@ -528,7 +481,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>TFTF</t>
     </r>
@@ -1100,14 +1052,42 @@
   </si>
   <si>
     <t>ACBDD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section 1 Use of English</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section Ⅱ Reading Comprehension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21------25(Text 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26------30(Text 2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31------35(Text 3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36------40(Text 4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41------45(Part B)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1436,52 +1416,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="C3:J4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="6" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1496,780 +1476,780 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2007</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2008</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2009</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2010</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2011</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2012</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2015</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2016</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>2005</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2006</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2007</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>2008</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>2009</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="K17" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>2010</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>2011</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>2012</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>2013</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>2014</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>2015</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>2016</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/app/assets/NETEM_Answers_Test.xlsx
+++ b/app/assets/NETEM_Answers_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1960" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="6840" yWindow="6480" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G1" sqref="G1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
